--- a/data/出力データデータ定義.xlsx
+++ b/data/出力データデータ定義.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\atsuhiro\optimization\shirokane_meetup_opt\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AB5D38-BAF5-45EC-BAD6-3CD842483CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B03AB52-14AC-4D66-9C89-F4EEEA2F4951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{2279F511-6C5A-457D-9D4B-01248EA209CF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{2279F511-6C5A-457D-9D4B-01248EA209CF}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
   <si>
     <t>s1</t>
   </si>
@@ -270,6 +270,56 @@
   </si>
   <si>
     <t>3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残業費用[円]</t>
+    <rPh sb="0" eb="2">
+      <t>ザンギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外注費用[円]</t>
+    <rPh sb="0" eb="4">
+      <t>ガイチュウヒヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2820</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7410</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配送重量[kg]</t>
+    <rPh sb="0" eb="4">
+      <t>ハイソウジュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2500</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3000</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -680,7 +730,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD134A2-E657-477C-9991-4473F65D3E7B}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="78" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="78" workbookViewId="0">
+      <selection sqref="A1:B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -743,16 +795,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949F4A74-F378-4453-883F-EC3B4F7CA530}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="16384" width="20.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -760,13 +812,19 @@
         <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -774,13 +832,19 @@
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -788,27 +852,39 @@
         <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F3" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -816,10 +892,16 @@
         <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>32</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -830,16 +912,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26003BC3-D14A-449A-B86F-A765319373AA}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="16384" width="20.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -855,8 +939,11 @@
       <c r="E1" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -872,8 +959,11 @@
       <c r="E2" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -889,8 +979,11 @@
       <c r="E3" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -906,8 +999,11 @@
       <c r="E4" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -923,8 +1019,11 @@
       <c r="E5" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F5" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -940,8 +1039,11 @@
       <c r="E6" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F6" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -957,8 +1059,11 @@
       <c r="E7" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F7" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -971,8 +1076,11 @@
       <c r="E8" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -988,60 +1096,70 @@
       <c r="E9" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F9" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D26" s="3"/>
     </row>
   </sheetData>
